--- a/Word/log/log_201608040220_xueerwei.xlsx
+++ b/Word/log/log_201608040220_xueerwei.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -26,10 +26,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>执行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>问题与后续计划</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -38,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>运行出现错误/解决问题并成功运行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,34 +46,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库表自动生成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>client/web pom修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接口类测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BaseEntity添加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能方法实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>课程设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +151,22 @@
   </si>
   <si>
     <t>完善文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目重构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目重构，新项目为机房管理系统，新建github上的仓库，上传重构说明文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月2号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传框架，设计数据库表，添加角色权限模块，并添加对应的测试。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,21 +547,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="43.5546875" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="67.5" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -587,336 +570,292 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>43229</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>43231</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>43234</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>43235</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>43236</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>43237</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>43238</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>43251</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>43252</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>43256</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>43258</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>43262</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>43265</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>43266</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>43270</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>43271</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>43272</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>43273</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>43274</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>43275</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>43276</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
         <v>43277</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>43278</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
         <v>43279</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>43280</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>43281</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>43282</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>43283</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>43284</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>43285</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>43286</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
+        <v>43304</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -932,7 +871,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -946,7 +885,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Word/log/log_201608040220_xueerwei.xlsx
+++ b/Word/log/log_201608040220_xueerwei.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -168,6 +168,9 @@
   <si>
     <t>上传框架，设计数据库表，添加角色权限模块，并添加对应的测试。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月3号</t>
   </si>
 </sst>
 </file>
@@ -547,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -856,6 +859,11 @@
       </c>
       <c r="B35" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Word/log/log_201608040220_xueerwei.xlsx
+++ b/Word/log/log_201608040220_xueerwei.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -170,7 +170,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8月3号</t>
+    <t>8月4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改主页 添加style.css/lib文件 添加html视图解析器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -553,7 +558,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A36"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -864,6 +869,9 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Word/log/log_201608040220_xueerwei.xlsx
+++ b/Word/log/log_201608040220_xueerwei.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -174,8 +174,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改主页 添加style.css/lib文件 添加html视图解析器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>修改主页 添加style.css/lib文件 添加html视图解析器，网页文件夹重命名 日志更改，添加login的service及impl/controller 添加依赖包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月5号</t>
+  </si>
+  <si>
+    <t>8月6号</t>
+  </si>
+  <si>
+    <t>8月7号</t>
+  </si>
+  <si>
+    <t>添加注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面数据交互连通'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加main.js包括ajax错误函数，完善登录界面</t>
   </si>
 </sst>
 </file>
@@ -228,7 +248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -253,6 +273,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,16 +578,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="67.5" customWidth="1"/>
+    <col min="2" max="2" width="100.25" customWidth="1"/>
     <col min="3" max="3" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -866,12 +889,36 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="9" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Word/log/log_201608040220_xueerwei.xlsx
+++ b/Word/log/log_201608040220_xueerwei.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -195,7 +195,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加main.js包括ajax错误函数，完善登录界面</t>
+    <t>8月14号</t>
+  </si>
+  <si>
+    <t>8月15号</t>
+  </si>
+  <si>
+    <t>8月21号</t>
+  </si>
+  <si>
+    <t>8月22号</t>
+  </si>
+  <si>
+    <t>8月23号</t>
+  </si>
+  <si>
+    <t>8月24号</t>
+  </si>
+  <si>
+    <t>修改网页名称，添加退出系统功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改页面布局，添加角色增加功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改机房申请界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改注册页面，添加注册的controller，添加机房申请页面，修改main页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆后的机房申请页面和机房管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加main.js包括ajax错误函数，完善登录界面，提交日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -578,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -918,7 +961,55 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="8" t="s">
         <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
